--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\作业\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7D225-E208-4E6C-B590-8D7A576C30FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5E1C9-B58C-49B8-9E59-362F6FE3D9D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1290" windowWidth="23700" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,7 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡带盒1</t>
+    <t>霄星传奇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,7 +727,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +760,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -835,10 +834,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -846,10 +845,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -857,15 +856,26 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\作业\homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5E1C9-B58C-49B8-9E59-362F6FE3D9D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859B9B4B-7B2A-4064-865B-512806FEDC10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1290" windowWidth="23700" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1770" windowWidth="23700" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="jc-color" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +189,102 @@
   </si>
   <si>
     <t>霄星传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(128, 128, 128)</t>
+  </si>
+  <si>
+    <t>伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(255, 81, 69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(0, 187, 223)</t>
+  </si>
+  <si>
+    <t>rgb(72, 92, 189)</t>
+  </si>
+  <si>
+    <t>rgb(240, 45, 125)</t>
+  </si>
+  <si>
+    <t>rgb(25, 215, 25)</t>
+  </si>
+  <si>
+    <t>rgb(240, 45, 55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(186, 214, 0)</t>
+  </si>
+  <si>
+    <t>rgb(139, 38, 166)</t>
+  </si>
+  <si>
+    <t>rgb(248, 182, 46)</t>
+  </si>
+  <si>
+    <t>#f2ca50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a65526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#d99c52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#f2e1c2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +313,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,9 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -878,4 +983,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B8ACD2-A428-4067-85BC-BD0DA2D175B3}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cards.xlsx
+++ b/cards.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859B9B4B-7B2A-4064-865B-512806FEDC10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEA3CA2-A388-4901-BCDE-CED67E351CBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2145" yWindow="1770" windowWidth="23700" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="jc-color" sheetId="2" r:id="rId2"/>
+    <sheet name="willbuy" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="jc-color" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,143 +150,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴敖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收纳包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卡带盒2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马力欧网球ace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎天使魔女1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎天使魔女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霄星传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(128, 128, 128)</t>
+  </si>
+  <si>
+    <t>伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(255, 81, 69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(0, 187, 223)</t>
+  </si>
+  <si>
+    <t>rgb(72, 92, 189)</t>
+  </si>
+  <si>
+    <t>rgb(240, 45, 125)</t>
+  </si>
+  <si>
+    <t>rgb(25, 215, 25)</t>
+  </si>
+  <si>
+    <t>rgb(240, 45, 55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(186, 214, 0)</t>
+  </si>
+  <si>
+    <t>rgb(139, 38, 166)</t>
+  </si>
+  <si>
+    <t>rgb(248, 182, 46)</t>
+  </si>
+  <si>
+    <t>#f2ca50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#a65526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#d99c52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#f2e1c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire emblem 风花雪月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>机子里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡带盒2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盒子里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马力欧网球ace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎天使魔女1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎天使魔女2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霄星传奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光黄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光绿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮卡丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb(128, 128, 128)</t>
-  </si>
-  <si>
-    <t>伊布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb(255, 81, 69)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb(0, 187, 223)</t>
-  </si>
-  <si>
-    <t>rgb(72, 92, 189)</t>
-  </si>
-  <si>
-    <t>rgb(240, 45, 125)</t>
-  </si>
-  <si>
-    <t>rgb(25, 215, 25)</t>
-  </si>
-  <si>
-    <t>rgb(240, 45, 55)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb(186, 214, 0)</t>
-  </si>
-  <si>
-    <t>rgb(139, 38, 166)</t>
-  </si>
-  <si>
-    <t>rgb(248, 182, 46)</t>
-  </si>
-  <si>
-    <t>#f2ca50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#a65526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#d99c52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#f2e1c2</t>
+    <t>漫威终极联盟3:黑暗秩序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发售日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界锁链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲战魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已预载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织梦岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ11S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随新ns附赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松松嘉年华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪手表1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哆啦A梦牧场物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等港服打折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日版太贵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打完4再买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码宝贝骇客追忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已淘宝预购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路易吉洋馆3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马力欧索尼克在东京奥运会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双点医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年下半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日版没中文日segay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mistover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝洞暗黑地牢like，有点兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等日版新消息再买，新消息是，日版没了；又有了，春软给点力啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老友记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁侠陈列室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影异闻录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合啦动物森友会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的世界山洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪士尼火车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反浩克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异度神剑决定版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织梦岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡带盒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛莎多拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身环大冒险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,10 +604,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,7 +900,7 @@
     <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +910,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -656,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -670,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -681,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -689,10 +955,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -703,7 +972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -711,10 +980,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -725,7 +997,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -733,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -758,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -768,8 +1040,11 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -777,32 +1052,38 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -810,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -821,21 +1102,24 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -843,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -854,21 +1138,27 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -876,10 +1166,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -887,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -898,10 +1188,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -909,10 +1202,10 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -923,18 +1216,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -945,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -953,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -964,10 +1257,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -975,7 +1268,40 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -986,115 +1312,520 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF72911-0237-4026-918A-C1B74F7035AB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF5F2E4-07EC-4412-9803-229994B5FF3B}">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>76125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2">
+        <v>524</v>
+      </c>
+      <c r="F2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>76109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>21319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>1070</v>
+      </c>
+      <c r="F4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>21377</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>2863</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>71044</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>2925</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>76105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B8ACD2-A428-4067-85BC-BD0DA2D175B3}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
